--- a/Codelist Excel Files and Conversion Templates to XML/class-astmD2487.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/class-astmD2487.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/diggs-dictionaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E353481E-4026-3045-9464-3C5963674E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE6C425-1D0A-ED47-A62D-DA9B85316DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11960" yWindow="4380" windowWidth="35840" windowHeight="20900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -2496,8 +2496,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Codelist Excel Files and Conversion Templates to XML/class-astmD2487.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/class-astmD2487.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE6C425-1D0A-ED47-A62D-DA9B85316DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EDE268-9434-554A-94C5-E56A2C2055C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="6920" windowWidth="35840" windowHeight="20740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -2429,7 +2429,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -2496,8 +2496,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Codelist Excel Files and Conversion Templates to XML/class-astmD2487.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/class-astmD2487.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EDE268-9434-554A-94C5-E56A2C2055C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44BB934-97EB-E144-BDEB-8281B6DD561F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="6920" windowWidth="35840" windowHeight="20740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="35840" windowHeight="20740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -1628,9 +1628,6 @@
     <t>SC-SMg</t>
   </si>
   <si>
-    <t>astmD2487</t>
-  </si>
-  <si>
     <t>More than half of soil passes No. 200 sieve;  liquid limit &lt; 50; inorganic; plots in the hatched (CL-ML) zone in the plasticity chart.</t>
   </si>
   <si>
@@ -1662,6 +1659,9 @@
   </si>
   <si>
     <t>More than half of coarse soil passes No.4 sieve; passing No.200 &gt; 12%; Atterberg's limits plot below "A" line in the plasticity chart or plasticity index less than 4.</t>
+  </si>
+  <si>
+    <t>astmd2487</t>
   </si>
 </sst>
 </file>
@@ -2429,8 +2429,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2473,7 +2473,7 @@
         <v>233</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>281</v>
@@ -2496,8 +2496,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2551,7 +2551,7 @@
         <v>235</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>4</v>
@@ -2575,7 +2575,7 @@
         <v>237</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>4</v>
@@ -2599,7 +2599,7 @@
         <v>239</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>4</v>
@@ -2623,7 +2623,7 @@
         <v>241</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>4</v>
@@ -2647,7 +2647,7 @@
         <v>243</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>4</v>
@@ -2671,7 +2671,7 @@
         <v>245</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>4</v>
@@ -2839,7 +2839,7 @@
         <v>256</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>4</v>
@@ -2863,7 +2863,7 @@
         <v>258</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>4</v>
@@ -2959,7 +2959,7 @@
         <v>263</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>4</v>
@@ -2983,7 +2983,7 @@
         <v>265</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>4</v>
@@ -3007,7 +3007,7 @@
         <v>267</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>4</v>
